--- a/xlsx/二氧化碳_intext.xlsx
+++ b/xlsx/二氧化碳_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="595">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="593">
   <si>
     <t>二氧化碳</t>
   </si>
@@ -29,13 +29,13 @@
     <t>IUPAC命名法</t>
   </si>
   <si>
-    <t>政策_政策_混合動力車輛_二氧化碳</t>
+    <t>政策_政策_混合动力车辆_二氧化碳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%BE%E5%86%B0</t>
   </si>
   <si>
-    <t>乾冰</t>
+    <t>干冰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/CAS%E5%8F%B7</t>
@@ -149,13 +149,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%8A_(%E5%96%AE%E4%BD%8D)</t>
   </si>
   <si>
-    <t>泊 (單位)</t>
+    <t>泊 (单位)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%81%B6%E6%A5%B5%E5%AD%90</t>
   </si>
   <si>
-    <t>偶極子</t>
+    <t>偶极子</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%86%E5%AD%90%E7%BB%93%E6%9E%84</t>
@@ -245,7 +245,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A9%BA%E6%B0%A3</t>
   </si>
   <si>
-    <t>空氣</t>
+    <t>空气</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%96%E5%90%88%E7%89%A9</t>
@@ -281,7 +281,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%8D%B5</t>
   </si>
   <si>
-    <t>鍵</t>
+    <t>键</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E8%A7%92</t>
@@ -299,7 +299,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BA%AB%E5%AE%A4%E6%B0%A3%E9%AB%94</t>
   </si>
   <si>
-    <t>溫室氣體</t>
+    <t>温室气体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%86%87</t>
@@ -311,37 +311,37 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BA%AB%E5%BA%A6</t>
   </si>
   <si>
-    <t>溫度</t>
+    <t>温度</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A3%93%E5%8A%9B</t>
   </si>
   <si>
-    <t>壓力</t>
+    <t>压力</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%99%E9%8D%B5</t>
   </si>
   <si>
-    <t>雙鍵</t>
+    <t>双键</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%A5%E7%88%BE%E6%96%AF</t>
   </si>
   <si>
-    <t>查爾斯</t>
+    <t>查尔斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%89%E6%A9%9F%E5%8C%96%E5%90%88%E7%89%A9</t>
   </si>
   <si>
-    <t>有機化合物</t>
+    <t>有机化合物</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%B0%E8%83%9E</t>
   </si>
   <si>
-    <t>細胞</t>
+    <t>细胞</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%91%BC%E5%90%B8%E4%BD%9C%E7%94%A8</t>
@@ -371,37 +371,37 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A2%B3%E5%BE%AA%E7%92%B0</t>
   </si>
   <si>
-    <t>碳循環</t>
+    <t>碳循环</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BA%AB%E5%AE%A4%E6%95%88%E6%87%89</t>
   </si>
   <si>
-    <t>溫室效應</t>
+    <t>温室效应</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BA%E9%AB%94</t>
   </si>
   <si>
-    <t>固體</t>
+    <t>固体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%87%E8%8F%AF</t>
   </si>
   <si>
-    <t>昇華</t>
+    <t>昇华</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%B0%A3%E5%A3%93%E5%8A%9B</t>
   </si>
   <si>
-    <t>大氣壓力</t>
+    <t>大气压力</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%98%AD%E5%BE%B7%E6%96%AF</t>
   </si>
   <si>
-    <t>法蘭德斯</t>
+    <t>法兰德斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%B0%94%E8%92%99%E7%89%B9</t>
@@ -431,7 +431,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A2%B3%E9%85%B8%E9%88%A3</t>
   </si>
   <si>
-    <t>碳酸鈣</t>
+    <t>碳酸钙</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%8C%E6%B0%A7%E5%8C%96%E7%A1%AB</t>
@@ -455,7 +455,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BB%85%E7%81%AB%E5%99%A8</t>
   </si>
   <si>
-    <t>滅火器</t>
+    <t>灭火器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%84%8A%E6%8E%A5</t>
@@ -467,13 +467,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%83%B0%E6%80%A7%E6%B0%A3%E9%AB%94</t>
   </si>
   <si>
-    <t>惰性氣體</t>
+    <t>惰性气体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%AC</t>
   </si>
   <si>
-    <t>氬</t>
+    <t>氩</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E5%B0%84</t>
@@ -491,7 +491,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%83%E5%A4%A7%E6%B0%A3%E5%B1%A4</t>
   </si>
   <si>
-    <t>地球大氣層</t>
+    <t>地球大气层</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E6%B4%8B%E9%85%B8%E5%8C%96</t>
@@ -509,13 +509,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%99%B8</t>
   </si>
   <si>
-    <t>公噸</t>
+    <t>公吨</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%99%B8</t>
   </si>
   <si>
-    <t>噸</t>
+    <t>吨</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AA%92%E6%81%AF</t>
@@ -527,31 +527,31 @@
     <t>https://zh.wikipedia.org/wiki/%E9%8E%82</t>
   </si>
   <si>
-    <t>鎂</t>
+    <t>镁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%8B%AF</t>
   </si>
   <si>
-    <t>鋯</t>
+    <t>锆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%88%A6</t>
   </si>
   <si>
-    <t>鈦</t>
+    <t>钛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%8B%81</t>
   </si>
   <si>
-    <t>鋁</t>
+    <t>铝</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%8C%B3</t>
   </si>
   <si>
-    <t>錳</t>
+    <t>锰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%AF%92</t>
@@ -563,7 +563,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%B0%A3</t>
   </si>
   <si>
-    <t>大氣</t>
+    <t>大气</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%BB%E4%BA%A1</t>
@@ -575,13 +575,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A0%AD%E7%97%9B</t>
   </si>
   <si>
-    <t>頭痛</t>
+    <t>头痛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%80%B3%E9%B3%B4</t>
   </si>
   <si>
-    <t>耳鳴</t>
+    <t>耳鸣</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E8%B7%B3</t>
@@ -605,7 +605,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%80%E5%A3%93</t>
   </si>
   <si>
-    <t>血壓</t>
+    <t>血压</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%B7%A5%E5%91%BC%E5%90%B8</t>
@@ -617,21 +617,18 @@
     <t>https://zh.wikipedia.org/wiki/%E8%88%88%E5%A5%AE%E5%8A%91</t>
   </si>
   <si>
-    <t>興奮劑</t>
+    <t>兴奋剂</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E7%94%9F%E7%B4%A0</t>
   </si>
   <si>
-    <t>維生素</t>
+    <t>维生素</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%A9%E5%AE%A4%E6%B0%94%E4%BD%93</t>
   </si>
   <si>
-    <t>温室气体</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%90%83%E5%8F%98%E6%9A%96</t>
   </si>
   <si>
@@ -641,9 +638,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A2%B3%E5%BE%AA%E7%8E%AF</t>
   </si>
   <si>
-    <t>碳循环</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%BB%E6%80%A7</t>
   </si>
   <si>
@@ -653,13 +647,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E5%B1%AC</t>
   </si>
   <si>
-    <t>金屬</t>
+    <t>金属</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%88%89</t>
   </si>
   <si>
-    <t>鈉</t>
+    <t>钠</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%A7%E5%8C%96%E8%BF%98%E5%8E%9F%E5%8F%8D%E5%BA%94</t>
@@ -725,7 +719,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%85%AF%E9%A1%9E</t>
   </si>
   <si>
-    <t>酯類</t>
+    <t>酯类</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1,2-%E4%BA%8C%E6%B0%A7%E6%9D%82%E7%8E%AF%E4%B8%81%E7%83%B7%E4%BA%8C%E9%85%AE</t>
@@ -1121,7 +1115,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%A7%E5%8C%96%E9%89%80</t>
   </si>
   <si>
-    <t>氧化鉀</t>
+    <t>氧化钾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BF%87%E6%B0%A7%E5%8C%96%E9%92%BE</t>
@@ -1283,7 +1277,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%A7%E5%8C%96%E9%8B%85</t>
   </si>
   <si>
-    <t>氧化鋅</t>
+    <t>氧化锌</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BF%87%E6%B0%A7%E5%8C%96%E9%94%8C</t>
@@ -1301,7 +1295,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E6%B0%A7%E5%8C%96%E9%8D%BA</t>
   </si>
   <si>
-    <t>一氧化鍺</t>
+    <t>一氧化锗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%8C%E6%B0%A7%E5%8C%96%E9%94%97</t>
@@ -1349,13 +1343,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%A7%E5%8C%96%E9%8D%B6</t>
   </si>
   <si>
-    <t>氧化鍶</t>
+    <t>氧化锶</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%8E%E6%B0%A7%E5%8C%96%E9%8D%B6</t>
   </si>
   <si>
-    <t>過氧化鍶</t>
+    <t>过氧化锶</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%A7%E5%8C%96%E9%92%87</t>
@@ -1511,7 +1505,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%A7%E5%8C%96%E9%8A%AB</t>
   </si>
   <si>
-    <t>氧化銫</t>
+    <t>氧化铯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%A7%E5%8C%96%E9%92%A1</t>
@@ -1565,7 +1559,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%8C%E6%B0%A7%E5%8C%96%E9%8A%A5</t>
   </si>
   <si>
-    <t>二氧化銥</t>
+    <t>二氧化铱</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%9B%E6%B0%A7%E5%8C%96%E9%93%B1</t>
@@ -1601,13 +1595,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9B%9B%E6%B0%A7%E5%8C%96%E4%B8%89%E9%89%9B</t>
   </si>
   <si>
-    <t>四氧化三鉛</t>
+    <t>四氧化三铅</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%8C%E6%B0%A7%E5%8C%96%E9%89%9B</t>
   </si>
   <si>
-    <t>二氧化鉛</t>
+    <t>二氧化铅</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%A7%E5%8C%96%E9%93%8B</t>
@@ -1751,7 +1745,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%8C%E6%B0%A7%E5%8C%96%E9%88%BE</t>
   </si>
   <si>
-    <t>二氧化鈾</t>
+    <t>二氧化铀</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E6%B0%A7%E5%8C%96%E9%93%80</t>
@@ -1769,7 +1763,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%AB%E6%B0%A7%E5%8C%96%E4%B8%89%E9%88%BE</t>
   </si>
   <si>
-    <t>八氧化三鈾</t>
+    <t>八氧化三铀</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%8C%E6%B0%A7%E5%8C%96%E9%92%9A</t>
@@ -1781,7 +1775,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A%E5%9B%BE%E4%B9%A6%E9%A6%86%E6%8E%A7%E5%88%B6%E5%8F%B7</t>
@@ -1799,7 +1793,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
@@ -2695,7 +2689,7 @@
         <v>38</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" t="s">
         <v>4</v>
@@ -2898,7 +2892,7 @@
         <v>52</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" t="s">
         <v>4</v>
@@ -2927,7 +2921,7 @@
         <v>54</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" t="s">
         <v>4</v>
@@ -5099,7 +5093,7 @@
         <v>203</v>
       </c>
       <c r="F102" t="s">
-        <v>204</v>
+        <v>94</v>
       </c>
       <c r="G102" t="n">
         <v>3</v>
@@ -5125,10 +5119,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>204</v>
+      </c>
+      <c r="F103" t="s">
         <v>205</v>
-      </c>
-      <c r="F103" t="s">
-        <v>206</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -5154,10 +5148,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F104" t="s">
-        <v>208</v>
+        <v>118</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -5183,10 +5177,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F105" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -5212,10 +5206,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F106" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G106" t="n">
         <v>2</v>
@@ -5241,10 +5235,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F107" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G107" t="n">
         <v>2</v>
@@ -5270,10 +5264,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F108" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -5299,10 +5293,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F109" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -5328,10 +5322,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F110" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G110" t="n">
         <v>5</v>
@@ -5357,10 +5351,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F111" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G111" t="n">
         <v>8</v>
@@ -5421,7 +5415,7 @@
         <v>62</v>
       </c>
       <c r="G113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H113" t="s">
         <v>4</v>
@@ -5444,13 +5438,13 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F114" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H114" t="s">
         <v>4</v>
@@ -5479,7 +5473,7 @@
         <v>60</v>
       </c>
       <c r="G115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H115" t="s">
         <v>4</v>
@@ -5502,13 +5496,13 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F116" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H116" t="s">
         <v>4</v>
@@ -5531,13 +5525,13 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F117" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H117" t="s">
         <v>4</v>
@@ -5566,7 +5560,7 @@
         <v>64</v>
       </c>
       <c r="G118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H118" t="s">
         <v>4</v>
@@ -5589,13 +5583,13 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F119" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H119" t="s">
         <v>4</v>
@@ -5618,13 +5612,13 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F120" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H120" t="s">
         <v>4</v>
@@ -5647,13 +5641,13 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F121" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H121" t="s">
         <v>4</v>
@@ -5676,10 +5670,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F122" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -5705,13 +5699,13 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F123" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H123" t="s">
         <v>4</v>
@@ -5734,13 +5728,13 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F124" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H124" t="s">
         <v>4</v>
@@ -5763,13 +5757,13 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F125" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H125" t="s">
         <v>4</v>
@@ -5792,13 +5786,13 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F126" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H126" t="s">
         <v>4</v>
@@ -5821,13 +5815,13 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F127" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H127" t="s">
         <v>4</v>
@@ -5850,13 +5844,13 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F128" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H128" t="s">
         <v>4</v>
@@ -5879,10 +5873,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F129" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5908,13 +5902,13 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F130" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H130" t="s">
         <v>4</v>
@@ -5937,13 +5931,13 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F131" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H131" t="s">
         <v>4</v>
@@ -5966,13 +5960,13 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F132" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H132" t="s">
         <v>4</v>
@@ -5995,13 +5989,13 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F133" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H133" t="s">
         <v>4</v>
@@ -6024,10 +6018,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F134" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G134" t="n">
         <v>3</v>
@@ -6053,13 +6047,13 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F135" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H135" t="s">
         <v>4</v>
@@ -6082,13 +6076,13 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F136" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H136" t="s">
         <v>4</v>
@@ -6111,13 +6105,13 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F137" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H137" t="s">
         <v>4</v>
@@ -6140,13 +6134,13 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F138" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H138" t="s">
         <v>4</v>
@@ -6169,13 +6163,13 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F139" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H139" t="s">
         <v>4</v>
@@ -6198,10 +6192,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F140" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G140" t="n">
         <v>2</v>
@@ -6227,10 +6221,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F141" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G141" t="n">
         <v>2</v>
@@ -6256,10 +6250,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F142" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G142" t="n">
         <v>4</v>
@@ -6285,10 +6279,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F143" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -6314,10 +6308,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F144" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -6372,10 +6366,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F146" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -6401,10 +6395,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F147" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -6430,10 +6424,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F148" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -6459,10 +6453,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F149" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -6488,10 +6482,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F150" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G150" t="n">
         <v>3</v>
@@ -6517,10 +6511,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F151" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G151" t="n">
         <v>2</v>
@@ -6546,10 +6540,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F152" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -6575,10 +6569,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F153" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -6604,10 +6598,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F154" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6633,10 +6627,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F155" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G155" t="n">
         <v>2</v>
@@ -6662,13 +6656,13 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F156" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H156" t="s">
         <v>4</v>
@@ -6691,13 +6685,13 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F157" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H157" t="s">
         <v>4</v>
@@ -6720,13 +6714,13 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F158" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H158" t="s">
         <v>4</v>
@@ -6749,13 +6743,13 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F159" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H159" t="s">
         <v>4</v>
@@ -6778,10 +6772,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F160" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G160" t="n">
         <v>6</v>
@@ -6807,13 +6801,13 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F161" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H161" t="s">
         <v>4</v>
@@ -6836,13 +6830,13 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F162" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H162" t="s">
         <v>4</v>
@@ -6865,13 +6859,13 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F163" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H163" t="s">
         <v>4</v>
@@ -6923,13 +6917,13 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F165" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H165" t="s">
         <v>4</v>
@@ -6952,13 +6946,13 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F166" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H166" t="s">
         <v>4</v>
@@ -6981,13 +6975,13 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F167" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H167" t="s">
         <v>4</v>
@@ -7010,10 +7004,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F168" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -7039,13 +7033,13 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F169" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H169" t="s">
         <v>4</v>
@@ -7068,13 +7062,13 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F170" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H170" t="s">
         <v>4</v>
@@ -7097,13 +7091,13 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F171" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H171" t="s">
         <v>4</v>
@@ -7126,10 +7120,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F172" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G172" t="n">
         <v>4</v>
@@ -7155,13 +7149,13 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F173" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H173" t="s">
         <v>4</v>
@@ -7184,13 +7178,13 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F174" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H174" t="s">
         <v>4</v>
@@ -7213,13 +7207,13 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F175" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H175" t="s">
         <v>4</v>
@@ -7242,13 +7236,13 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F176" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H176" t="s">
         <v>4</v>
@@ -7271,13 +7265,13 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F177" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H177" t="s">
         <v>4</v>
@@ -7300,13 +7294,13 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F178" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H178" t="s">
         <v>4</v>
@@ -7329,13 +7323,13 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F179" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H179" t="s">
         <v>4</v>
@@ -7358,10 +7352,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F180" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G180" t="n">
         <v>2</v>
@@ -7387,13 +7381,13 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F181" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H181" t="s">
         <v>4</v>
@@ -7416,13 +7410,13 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F182" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H182" t="s">
         <v>4</v>
@@ -7445,10 +7439,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F183" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G183" t="n">
         <v>2</v>
@@ -7474,13 +7468,13 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F184" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H184" t="s">
         <v>4</v>
@@ -7503,13 +7497,13 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F185" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H185" t="s">
         <v>4</v>
@@ -7532,13 +7526,13 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F186" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H186" t="s">
         <v>4</v>
@@ -7567,7 +7561,7 @@
         <v>140</v>
       </c>
       <c r="G187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H187" t="s">
         <v>4</v>
@@ -7590,13 +7584,13 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F188" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G188" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H188" t="s">
         <v>4</v>
@@ -7619,13 +7613,13 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F189" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H189" t="s">
         <v>4</v>
@@ -7648,13 +7642,13 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F190" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H190" t="s">
         <v>4</v>
@@ -7677,13 +7671,13 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F191" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H191" t="s">
         <v>4</v>
@@ -7706,13 +7700,13 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F192" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H192" t="s">
         <v>4</v>
@@ -7735,13 +7729,13 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F193" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H193" t="s">
         <v>4</v>
@@ -7764,10 +7758,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F194" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G194" t="n">
         <v>3</v>
@@ -7793,13 +7787,13 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F195" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H195" t="s">
         <v>4</v>
@@ -7822,13 +7816,13 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F196" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="G196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H196" t="s">
         <v>4</v>
@@ -7851,13 +7845,13 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F197" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G197" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H197" t="s">
         <v>4</v>
@@ -7880,13 +7874,13 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F198" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G198" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H198" t="s">
         <v>4</v>
@@ -7909,13 +7903,13 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F199" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H199" t="s">
         <v>4</v>
@@ -7938,10 +7932,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F200" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G200" t="n">
         <v>3</v>
@@ -7967,13 +7961,13 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F201" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H201" t="s">
         <v>4</v>
@@ -7996,13 +7990,13 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F202" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G202" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H202" t="s">
         <v>4</v>
@@ -8025,13 +8019,13 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F203" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G203" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H203" t="s">
         <v>4</v>
@@ -8054,10 +8048,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F204" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G204" t="n">
         <v>2</v>
@@ -8083,13 +8077,13 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F205" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G205" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H205" t="s">
         <v>4</v>
@@ -8112,13 +8106,13 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F206" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="G206" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H206" t="s">
         <v>4</v>
@@ -8141,13 +8135,13 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F207" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="G207" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H207" t="s">
         <v>4</v>
@@ -8170,13 +8164,13 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F208" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G208" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H208" t="s">
         <v>4</v>
@@ -8199,10 +8193,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F209" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -8228,13 +8222,13 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F210" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G210" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H210" t="s">
         <v>4</v>
@@ -8257,13 +8251,13 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F211" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G211" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H211" t="s">
         <v>4</v>
@@ -8286,10 +8280,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F212" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -8315,13 +8309,13 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F213" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="G213" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H213" t="s">
         <v>4</v>
@@ -8344,13 +8338,13 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F214" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G214" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H214" t="s">
         <v>4</v>
@@ -8373,10 +8367,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F215" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -8402,13 +8396,13 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F216" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G216" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H216" t="s">
         <v>4</v>
@@ -8431,13 +8425,13 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F217" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G217" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H217" t="s">
         <v>4</v>
@@ -8460,10 +8454,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F218" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8489,10 +8483,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F219" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G219" t="n">
         <v>2</v>
@@ -8518,13 +8512,13 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F220" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G220" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H220" t="s">
         <v>4</v>
@@ -8547,13 +8541,13 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F221" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="G221" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H221" t="s">
         <v>4</v>
@@ -8576,10 +8570,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F222" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="G222" t="n">
         <v>2</v>
@@ -8605,13 +8599,13 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F223" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="G223" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H223" t="s">
         <v>4</v>
@@ -8634,13 +8628,13 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F224" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="G224" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H224" t="s">
         <v>4</v>
@@ -8663,13 +8657,13 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F225" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="G225" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H225" t="s">
         <v>4</v>
@@ -8692,13 +8686,13 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F226" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="G226" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H226" t="s">
         <v>4</v>
@@ -8721,13 +8715,13 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="F227" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="G227" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H227" t="s">
         <v>4</v>
@@ -8750,13 +8744,13 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F228" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G228" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H228" t="s">
         <v>4</v>
@@ -8779,13 +8773,13 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F229" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G229" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H229" t="s">
         <v>4</v>
@@ -8808,10 +8802,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="F230" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G230" t="n">
         <v>2</v>
@@ -8837,13 +8831,13 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F231" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="G231" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H231" t="s">
         <v>4</v>
@@ -8866,13 +8860,13 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F232" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G232" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H232" t="s">
         <v>4</v>
@@ -8895,13 +8889,13 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F233" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="G233" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H233" t="s">
         <v>4</v>
@@ -8924,13 +8918,13 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F234" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G234" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H234" t="s">
         <v>4</v>
@@ -8953,13 +8947,13 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F235" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="G235" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H235" t="s">
         <v>4</v>
@@ -8982,13 +8976,13 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="F236" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="G236" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H236" t="s">
         <v>4</v>
@@ -9011,13 +9005,13 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="F237" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="G237" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H237" t="s">
         <v>4</v>
@@ -9040,13 +9034,13 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F238" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G238" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H238" t="s">
         <v>4</v>
@@ -9069,13 +9063,13 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F239" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="G239" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H239" t="s">
         <v>4</v>
@@ -9098,10 +9092,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F240" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -9127,13 +9121,13 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F241" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G241" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H241" t="s">
         <v>4</v>
@@ -9156,10 +9150,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F242" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -9185,10 +9179,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F243" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -9214,13 +9208,13 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F244" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="G244" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H244" t="s">
         <v>4</v>
@@ -9243,13 +9237,13 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="F245" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="G245" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H245" t="s">
         <v>4</v>
@@ -9272,10 +9266,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F246" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G246" t="n">
         <v>2</v>
@@ -9301,13 +9295,13 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="F247" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="G247" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H247" t="s">
         <v>4</v>
@@ -9330,13 +9324,13 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="F248" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="G248" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H248" t="s">
         <v>4</v>
@@ -9359,13 +9353,13 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="F249" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="G249" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H249" t="s">
         <v>4</v>
@@ -9388,13 +9382,13 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="F250" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="G250" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H250" t="s">
         <v>4</v>
@@ -9417,13 +9411,13 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="F251" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="G251" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H251" t="s">
         <v>4</v>
@@ -9446,13 +9440,13 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F252" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G252" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H252" t="s">
         <v>4</v>
@@ -9475,13 +9469,13 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="F253" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="G253" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H253" t="s">
         <v>4</v>
@@ -9504,13 +9498,13 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="F254" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="G254" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H254" t="s">
         <v>4</v>
@@ -9533,13 +9527,13 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="F255" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="G255" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H255" t="s">
         <v>4</v>
@@ -9562,13 +9556,13 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="F256" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G256" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H256" t="s">
         <v>4</v>
@@ -9591,13 +9585,13 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="F257" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="G257" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H257" t="s">
         <v>4</v>
@@ -9620,10 +9614,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="F258" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="G258" t="n">
         <v>2</v>
@@ -9649,13 +9643,13 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F259" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="G259" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H259" t="s">
         <v>4</v>
@@ -9678,13 +9672,13 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="F260" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="G260" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H260" t="s">
         <v>4</v>
@@ -9707,13 +9701,13 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F261" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="G261" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H261" t="s">
         <v>4</v>
@@ -9736,13 +9730,13 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="F262" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="G262" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H262" t="s">
         <v>4</v>
@@ -9765,13 +9759,13 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F263" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="G263" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H263" t="s">
         <v>4</v>
@@ -9794,13 +9788,13 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F264" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="G264" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H264" t="s">
         <v>4</v>
@@ -9823,13 +9817,13 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="F265" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="G265" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H265" t="s">
         <v>4</v>
@@ -9852,13 +9846,13 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="F266" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="G266" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H266" t="s">
         <v>4</v>
@@ -9881,13 +9875,13 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="F267" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="G267" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H267" t="s">
         <v>4</v>
@@ -9910,13 +9904,13 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="F268" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="G268" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H268" t="s">
         <v>4</v>
@@ -9939,13 +9933,13 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="F269" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="G269" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H269" t="s">
         <v>4</v>
@@ -9968,10 +9962,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="F270" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -9997,10 +9991,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="F271" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="G271" t="n">
         <v>2</v>
@@ -10026,13 +10020,13 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F272" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G272" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H272" t="s">
         <v>4</v>
@@ -10055,13 +10049,13 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="F273" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="G273" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H273" t="s">
         <v>4</v>
@@ -10084,13 +10078,13 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="F274" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="G274" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H274" t="s">
         <v>4</v>
@@ -10113,13 +10107,13 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="F275" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G275" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H275" t="s">
         <v>4</v>
@@ -10142,13 +10136,13 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="F276" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="G276" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H276" t="s">
         <v>4</v>
@@ -10171,13 +10165,13 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="F277" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="G277" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H277" t="s">
         <v>4</v>
@@ -10200,13 +10194,13 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="F278" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="G278" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H278" t="s">
         <v>4</v>
@@ -10229,13 +10223,13 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="F279" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="G279" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H279" t="s">
         <v>4</v>
@@ -10258,13 +10252,13 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="F280" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="G280" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H280" t="s">
         <v>4</v>
@@ -10287,13 +10281,13 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="F281" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="G281" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H281" t="s">
         <v>4</v>
@@ -10316,13 +10310,13 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="F282" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="G282" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H282" t="s">
         <v>4</v>
@@ -10345,13 +10339,13 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="F283" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="G283" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H283" t="s">
         <v>4</v>
@@ -10374,13 +10368,13 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="F284" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="G284" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H284" t="s">
         <v>4</v>
@@ -10403,13 +10397,13 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="F285" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="G285" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H285" t="s">
         <v>4</v>
@@ -10432,13 +10426,13 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="F286" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="G286" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H286" t="s">
         <v>4</v>
@@ -10461,13 +10455,13 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="F287" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="G287" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H287" t="s">
         <v>4</v>
@@ -10490,13 +10484,13 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="F288" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="G288" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H288" t="s">
         <v>4</v>
@@ -10519,13 +10513,13 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="F289" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="G289" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H289" t="s">
         <v>4</v>
@@ -10548,13 +10542,13 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="F290" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="G290" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H290" t="s">
         <v>4</v>
@@ -10577,13 +10571,13 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="F291" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="G291" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H291" t="s">
         <v>4</v>
@@ -10606,13 +10600,13 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="F292" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G292" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H292" t="s">
         <v>4</v>
@@ -10635,13 +10629,13 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F293" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="G293" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H293" t="s">
         <v>4</v>
@@ -10664,13 +10658,13 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="F294" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="G294" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H294" t="s">
         <v>4</v>
@@ -10693,13 +10687,13 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="F295" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="G295" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H295" t="s">
         <v>4</v>
@@ -10722,13 +10716,13 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="F296" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G296" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H296" t="s">
         <v>4</v>
@@ -10751,13 +10745,13 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="F297" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="G297" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H297" t="s">
         <v>4</v>
@@ -10780,13 +10774,13 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F298" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="G298" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H298" t="s">
         <v>4</v>
@@ -10809,13 +10803,13 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="F299" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="G299" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H299" t="s">
         <v>4</v>
@@ -10838,13 +10832,13 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="F300" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="G300" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H300" t="s">
         <v>4</v>
@@ -10867,13 +10861,13 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="F301" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="G301" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H301" t="s">
         <v>4</v>
@@ -10896,10 +10890,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="F302" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="G302" t="n">
         <v>3</v>
@@ -10925,10 +10919,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="F303" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -10954,10 +10948,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="F304" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -10983,10 +10977,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="F305" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
